--- a/Projects/Business Cash Flow-Fluxo de Caixa Empresarial.xlsx
+++ b/Projects/Business Cash Flow-Fluxo de Caixa Empresarial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E51F41-DB00-4FDD-AFAD-FF58FCFC8B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF970A-FB2C-41C9-97A8-C88092D030E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="613" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="613" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="2" r:id="rId1"/>
@@ -30,6 +30,10 @@
     <sheet name="CurrentFinancialDashboard" sheetId="17" r:id="rId15"/>
     <sheet name="MonthlyFinancialDashboard" sheetId="18" r:id="rId16"/>
   </sheets>
+  <definedNames>
+    <definedName name="TBExpenseChartL1_Level1">TBExpenseChartL1[Level 1]</definedName>
+    <definedName name="TBIncomeChartL1_Level1">TBIncomeChartL1[Level 1]</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Rafael Menezes de Souza</t>
   </si>
@@ -115,13 +119,112 @@
     <t>Resources:
 Shapes
 Hiperlinks</t>
+  </si>
+  <si>
+    <t>Short-term loans</t>
+  </si>
+  <si>
+    <t>Long-term financing</t>
+  </si>
+  <si>
+    <t>Financial Income</t>
+  </si>
+  <si>
+    <t>Sale of assets</t>
+  </si>
+  <si>
+    <t>Sales of goods</t>
+  </si>
+  <si>
+    <t>Financial income</t>
+  </si>
+  <si>
+    <t>Level 1</t>
+  </si>
+  <si>
+    <t>Tables</t>
+  </si>
+  <si>
+    <t>Level 2</t>
+  </si>
+  <si>
+    <t>Som e imagem</t>
+  </si>
+  <si>
+    <t>Working capital loans</t>
+  </si>
+  <si>
+    <t>Interest on applications</t>
+  </si>
+  <si>
+    <t>Own furniture</t>
+  </si>
+  <si>
+    <t>Home appliances</t>
+  </si>
+  <si>
+    <t>Computing</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Sound and image</t>
+  </si>
+  <si>
+    <t>Freeze Panes</t>
+  </si>
+  <si>
+    <t>Purchase of goods</t>
+  </si>
+  <si>
+    <t>Administrative expenses</t>
+  </si>
+  <si>
+    <t>Commercial expenses</t>
+  </si>
+  <si>
+    <t>Financial expenses</t>
+  </si>
+  <si>
+    <t>Income tax</t>
+  </si>
+  <si>
+    <t>Sales tax</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Communication - internet and telephony</t>
+  </si>
+  <si>
+    <t>Electric power</t>
+  </si>
+  <si>
+    <t>Charges on salespeople’s salaries</t>
+  </si>
+  <si>
+    <t>Salespeople’s salaries</t>
+  </si>
+  <si>
+    <t>Interest on loans</t>
+  </si>
+  <si>
+    <t>Income tax on presumed profit</t>
+  </si>
+  <si>
+    <t>Data Validation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +251,27 @@
     <font>
       <sz val="11"/>
       <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -179,9 +303,33 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -191,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -215,11 +363,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2919,6 +3127,48 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83A8D419-F031-4AB9-9ADF-A00D24204E02}" name="TBIncomeChartL1" displayName="TBIncomeChartL1" ref="B4:B9" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B4:B9" xr:uid="{83A8D419-F031-4AB9-9ADF-A00D24204E02}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{E04270CE-FB73-47DE-8BE1-D5807783339E}" name="Level 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2D433A9-3D24-43BF-862C-DE0FBF6E3C8E}" name="TBIncomeChartL2" displayName="TBIncomeChartL2" ref="B4:C12" totalsRowShown="0">
+  <autoFilter ref="B4:C12" xr:uid="{D2D433A9-3D24-43BF-862C-DE0FBF6E3C8E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3AEE9C20-3606-4C94-AECE-55CEFED39699}" name="Level 1"/>
+    <tableColumn id="2" xr3:uid="{CAFA7292-861E-4995-BEAE-F0D17F05884E}" name="Level 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC3455BE-3986-4DF7-AF98-34111126F611}" name="TBExpenseChartL1" displayName="TBExpenseChartL1" ref="B4:B10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B4:B10" xr:uid="{FC3455BE-3986-4DF7-AF98-34111126F611}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{9349C5A7-0A01-4D8E-B715-A28A43575AE6}" name="Level 1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{77C70910-2695-4E12-9836-7632D80860B4}" name="Table5" displayName="Table5" ref="B4:C15" totalsRowShown="0">
+  <autoFilter ref="B4:C15" xr:uid="{77C70910-2695-4E12-9836-7632D80860B4}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{4CED80D1-8E54-4857-96D7-B45B2FDD9837}" name="Level 1"/>
+    <tableColumn id="2" xr3:uid="{D7773403-C31B-4345-9394-EF009B552358}" name="Level 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3184,9 +3434,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD698CB-191A-4A21-918E-D26A0D607D1A}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3284,6 +3536,21 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3879,9 +4146,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9FB2E0-6AF0-4F33-BF8C-5CBF82EAA65E}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3929,13 +4199,65 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+    </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3943,24 +4265,34 @@
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB0C735-19E1-40B4-A667-92162FD64339}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="14" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="14" width="8.77734375" customWidth="1"/>
     <col min="15" max="15" width="2.5546875" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" hidden="1"/>
   </cols>
@@ -4002,32 +4334,132 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12" xr:uid="{55CE77D7-19F8-4064-9520-432E6ED86721}">
+      <formula1>TBIncomeChartL1_Level1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66410CBC-DB42-40FE-97FF-F34346333F90}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4:N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4075,38 +4507,102 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+    </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DE26C4-60E8-4385-91D4-84FEF34130FE}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.88671875" customWidth="1"/>
     <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="14" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="2.5546875" customWidth="1"/>
     <col min="16" max="16384" width="9.109375" hidden="1"/>
   </cols>
@@ -4148,24 +4644,148 @@
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B15" xr:uid="{DA141A7F-D400-4DAB-966B-F3AFB7F2B8BB}">
+      <formula1>TBExpenseChartL1_Level1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
